--- a/biology/Médecine/1718_en_santé_et_médecine/1718_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1718_en_santé_et_médecine/1718_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1718_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1718_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1718 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1718_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1718_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>11 décembre : le roi Charles XII de Suède est tué lors du siège du fort norvégien Fredriksten par un projectile qui lui traverse le crâne de part en part :
 « Une balle pesant une demi-livre l’avait atteint à la tempe droite, et avait fait un trou dans lequel on pouvait enfoncer trois doigts ; sa tête était renversée sur le parapet, l’œil gauche était enfoncé, et le droit entièrement hors de son orbite. »
-— Voltaire[1].</t>
+— Voltaire.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1718_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1718_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Dionis (1643-1718) :
-Traité général des accouchements[2].
-2e édition de Dissertation sur la mort subite, et sur la catalepsie[3].
-Parution du mémoire de Joseph François Lafitau au régent Philippe d'Orléans concernant le ginseng américain[4].
-Parution de l'ouvrage de Sébastien Vaillant dont une partie s'intitule « Établissement d'un nouveau genre de plante nommé Araliastrum, duquel le fameux ninzin ou ginseng des Chinois, est une espèce »[5].</t>
+Traité général des accouchements.
+2e édition de Dissertation sur la mort subite, et sur la catalepsie.
+Parution du mémoire de Joseph François Lafitau au régent Philippe d'Orléans concernant le ginseng américain.
+Parution de l'ouvrage de Sébastien Vaillant dont une partie s'intitule « Établissement d'un nouveau genre de plante nommé Araliastrum, duquel le fameux ninzin ou ginseng des Chinois, est une espèce ».</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1718_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1718_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>15 février : Hilaire-Marin Rouelle (mort en 1779), apothicaire et chimiste français.
-23 mai : William Hunter (mort en 1783), anatomiste écossais[6],[7].
-9 octobre : Pierre Joseph Macquer (mort en 1784), médecin et chimiste français[8].</t>
+23 mai : William Hunter (mort en 1783), anatomiste écossais,.
+9 octobre : Pierre Joseph Macquer (mort en 1784), médecin et chimiste français.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1718_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1718_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>29 janvier : Giacinto Cestoni (né en 1637), pharmacien italien[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>29 janvier : Giacinto Cestoni (né en 1637), pharmacien italien.
 11 mars : Guy-Crescent Fagon (né en 1638), médecin et botaniste français.
 11 décembre : Pierre Dionis (né en 1643), chirurgien et anatomiste français.</t>
         </is>
